--- a/output/fit_clients/fit_round_208.xlsx
+++ b/output/fit_clients/fit_round_208.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2252610351.310575</v>
+        <v>2153331497.574616</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09340331667048304</v>
+        <v>0.07027894894160173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03039045571801373</v>
+        <v>0.03626426662619698</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1126305205.21768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2434299468.617366</v>
+        <v>1934993216.901978</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1697545013863537</v>
+        <v>0.1666555631283153</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04052647436031827</v>
+        <v>0.03787725626526459</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1217149841.608177</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3349528479.227833</v>
+        <v>4158863664.25358</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1025233641712755</v>
+        <v>0.1577056899961655</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02810638451550571</v>
+        <v>0.02864869977389867</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>75</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1674764207.704604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2581800475.699268</v>
+        <v>4010050414.140854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09990826014288734</v>
+        <v>0.1058199656384979</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04270886816043862</v>
+        <v>0.04542920167448508</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>79</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1290900335.32569</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2714956436.301692</v>
+        <v>2051123695.152966</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1244579785660647</v>
+        <v>0.1423709863317635</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04954399324572597</v>
+        <v>0.04750774721246002</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1357478170.34917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2499450412.000595</v>
+        <v>2071248554.472199</v>
       </c>
       <c r="F7" t="n">
-        <v>0.072392168249479</v>
+        <v>0.07343777913008655</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03309247515623469</v>
+        <v>0.04956616685822497</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1249725219.067641</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3573987314.004734</v>
+        <v>2911290133.887067</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1484989273566463</v>
+        <v>0.1665496461682706</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03304553967395068</v>
+        <v>0.02699138049678066</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>66</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1786993773.174507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1890023530.722268</v>
+        <v>1771623666.932132</v>
       </c>
       <c r="F9" t="n">
-        <v>0.16380815115643</v>
+        <v>0.1341047013875119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03269133713580896</v>
+        <v>0.02381335393178139</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>945011807.2106072</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4949164683.386312</v>
+        <v>3840600268.893589</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1634143101855546</v>
+        <v>0.1461616314503479</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04756622509151628</v>
+        <v>0.03979464071628266</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2474582437.085492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2710258990.825763</v>
+        <v>2889781923.494277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1804218504375132</v>
+        <v>0.1246678464277307</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03140907088811239</v>
+        <v>0.03475952426478541</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>86</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1355129418.101079</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2071467103.796137</v>
+        <v>3197114635.415966</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1745992993508634</v>
+        <v>0.1722288353309455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03325541876290583</v>
+        <v>0.05095105733293023</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1035733484.871553</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5330975562.406874</v>
+        <v>5290204054.568511</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08389921135766233</v>
+        <v>0.07255628388759072</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02302041637819223</v>
+        <v>0.01992035628716269</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>70</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2665487768.511288</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2753301786.264494</v>
+        <v>2388022240.816443</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1813441297780801</v>
+        <v>0.1666634124500997</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03064686194866666</v>
+        <v>0.03005346109871192</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>67</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1376650945.419141</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1849348939.935369</v>
+        <v>1590180443.118646</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08673493808462125</v>
+        <v>0.06670589760559674</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03167168892913617</v>
+        <v>0.04939108165651498</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>924674634.6537623</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2471247491.381783</v>
+        <v>1773036076.653931</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07993204391474192</v>
+        <v>0.08581104028812539</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04716133632097918</v>
+        <v>0.05184977264129043</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>33</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1235623779.055123</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4177219749.725285</v>
+        <v>4312033681.089495</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1306512804251414</v>
+        <v>0.1716507425728473</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03823978940558522</v>
+        <v>0.04911451126052856</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>61</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2088609900.694839</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3551634388.356107</v>
+        <v>3460703429.377787</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1599836203639515</v>
+        <v>0.1184452352520571</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03340676189252682</v>
+        <v>0.02279550698079859</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>68</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1775817184.459005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1309402732.77297</v>
+        <v>1023264005.185529</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1891519258626689</v>
+        <v>0.155421796715113</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01998586632841965</v>
+        <v>0.02053348526255896</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>654701470.900565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2195216430.44136</v>
+        <v>2627118318.847312</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1198082988716125</v>
+        <v>0.1615613258910454</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03112705576685673</v>
+        <v>0.02913606924206135</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>34</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1097608220.761847</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2327464572.951836</v>
+        <v>2681411332.450994</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07380852901507012</v>
+        <v>0.1003868155800911</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02836000269784662</v>
+        <v>0.03538357596152222</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1163732291.100545</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2665824249.844036</v>
+        <v>3960246616.776624</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1313584665536658</v>
+        <v>0.1304001072459949</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04761606949131988</v>
+        <v>0.04406543544323434</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1332912206.449942</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1296461018.998857</v>
+        <v>1462070658.694409</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1610194514674772</v>
+        <v>0.1526162539113724</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05343331494468484</v>
+        <v>0.04692771906724862</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>648230529.7166252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4087272797.24695</v>
+        <v>3263169991.193145</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09564671681063054</v>
+        <v>0.09362488071141596</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03745974448454262</v>
+        <v>0.02607264358909885</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>61</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2043636360.703811</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1407284271.238335</v>
+        <v>1258827724.310022</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08012982397099455</v>
+        <v>0.07510976101110178</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0253174321375583</v>
+        <v>0.02435601426534807</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>703642105.8843724</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1159073713.249568</v>
+        <v>1131574889.019463</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1172568938116231</v>
+        <v>0.1229781522838096</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02526560598763471</v>
+        <v>0.0270382357495532</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>579536867.5946308</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4591426632.973867</v>
+        <v>3564128454.331838</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1413342375417904</v>
+        <v>0.1436272626211931</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01735276562234191</v>
+        <v>0.01800499656065954</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2295713297.24256</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3472329795.259356</v>
+        <v>3819586597.00776</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1353051878823106</v>
+        <v>0.1261248286519981</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05016336597783898</v>
+        <v>0.05032551192606096</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>68</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1736164949.859478</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3666102819.077561</v>
+        <v>4584178140.64662</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1467012571924388</v>
+        <v>0.1388417134314554</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03066838504594536</v>
+        <v>0.0301711918621889</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1833051449.485795</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1981076572.350328</v>
+        <v>1794199176.140014</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1065560452907439</v>
+        <v>0.08502731903181816</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03610680231794396</v>
+        <v>0.0299522754726902</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>990538321.4618587</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1021875679.97619</v>
+        <v>987223521.0600851</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07335520656589992</v>
+        <v>0.09062072580303052</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05224030888541502</v>
+        <v>0.04893898221494726</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>510937833.3533126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1165432786.213242</v>
+        <v>1369961338.869745</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09483919761896425</v>
+        <v>0.09819753044938662</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02509348033781756</v>
+        <v>0.02995017546255601</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>582716392.1563325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2699214955.678285</v>
+        <v>2630138567.050598</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1662005414893232</v>
+        <v>0.1755203818301135</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05255934379887763</v>
+        <v>0.04742553766527409</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>62</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1349607499.082886</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1174742612.400568</v>
+        <v>1453023638.120913</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08703624493314939</v>
+        <v>0.08151329188124483</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02520021000654911</v>
+        <v>0.02253304711762385</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>587371315.3644136</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>847292956.5741979</v>
+        <v>1124365855.435863</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09098148011626364</v>
+        <v>0.09034476397099835</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02803631807911062</v>
+        <v>0.03310798701367904</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>423646530.3486915</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2863433599.247066</v>
+        <v>2541950885.967689</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1732297123791741</v>
+        <v>0.1559856229503278</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02318096448482507</v>
+        <v>0.02131849930527115</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>53</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1431716792.475119</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2250795888.423758</v>
+        <v>1896253162.82027</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0703934329463036</v>
+        <v>0.08719017558148513</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02652146924698035</v>
+        <v>0.04090884902350588</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>55</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1125398005.967465</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2001648429.983383</v>
+        <v>1926807701.314646</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1197495005080429</v>
+        <v>0.08002180217672965</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03900639882460199</v>
+        <v>0.03512575522091103</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1000824193.366114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2077905740.011889</v>
+        <v>1845898106.369179</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1838740731140935</v>
+        <v>0.1542649632937858</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03182041092593318</v>
+        <v>0.03164260105554622</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1038952852.686332</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1732127057.055171</v>
+        <v>1262740192.118438</v>
       </c>
       <c r="F40" t="n">
-        <v>0.106953452558454</v>
+        <v>0.1104649319020101</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04194889824896571</v>
+        <v>0.0469321964325926</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>866063436.5823797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2009327076.429987</v>
+        <v>2564519305.396208</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1472934822797024</v>
+        <v>0.1575314291053212</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04398885535605705</v>
+        <v>0.03313240461566136</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>52</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1004663611.54727</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2804372996.214646</v>
+        <v>3060906888.84356</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08103850554570007</v>
+        <v>0.111604125501208</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04297007195857624</v>
+        <v>0.02959376793275153</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>69</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1402186445.058692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2894848695.932614</v>
+        <v>2218674557.862196</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1716275565759377</v>
+        <v>0.1671696317356947</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01608918111811084</v>
+        <v>0.02471727438796454</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>70</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1447424356.920333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2083722075.876445</v>
+        <v>1427927782.956721</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09019445210578489</v>
+        <v>0.09329064676730921</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02772731313849337</v>
+        <v>0.0249313680491781</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1041861160.964046</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1945080535.388991</v>
+        <v>2099238568.598278</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1191837824518598</v>
+        <v>0.1691148767095648</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04635864091085046</v>
+        <v>0.03642349734949173</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>972540252.9991014</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3768001202.288255</v>
+        <v>5097614089.65703</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1606907064714555</v>
+        <v>0.163249916894067</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04111194219902614</v>
+        <v>0.03795710271436011</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>74</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1884000557.377747</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3815024468.85731</v>
+        <v>3159549974.534134</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1654075657545928</v>
+        <v>0.1424595883257629</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05779136661875179</v>
+        <v>0.04531977259026559</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>56</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1907512223.057832</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3050147542.733946</v>
+        <v>3853198010.415225</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09396945359710389</v>
+        <v>0.10277985008697</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03378139487525478</v>
+        <v>0.0272414033817424</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>72</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1525073860.904851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1405109523.651544</v>
+        <v>1381606126.459222</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1357502897516975</v>
+        <v>0.1817647526607076</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04304394727685026</v>
+        <v>0.03928149687013848</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>702554808.5942619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2947264009.450912</v>
+        <v>3545554696.458378</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1598606978776359</v>
+        <v>0.1399008795351883</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04741563800355644</v>
+        <v>0.04908368554992468</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>71</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1473632068.291478</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1026103389.27335</v>
+        <v>1308380738.271509</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1212140749773118</v>
+        <v>0.1738721541523185</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05022991208188025</v>
+        <v>0.04265686786439778</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>513051774.358817</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3487133251.327025</v>
+        <v>5191054298.475286</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1202900807524426</v>
+        <v>0.1099417436396869</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04838831440059443</v>
+        <v>0.05137549061402167</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>86</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1743566712.311463</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3485388266.696888</v>
+        <v>2836318003.282518</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1975432600472461</v>
+        <v>0.2022012330353757</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02705474298939388</v>
+        <v>0.02670608231709952</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1742694132.275221</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3361476985.01114</v>
+        <v>4711922235.844805</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1029045968647063</v>
+        <v>0.145847575401543</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03568546627105893</v>
+        <v>0.05138030195019045</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1680738506.418605</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4776193619.406636</v>
+        <v>4840803027.151027</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1429838085761432</v>
+        <v>0.2087451300226076</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0309813746677596</v>
+        <v>0.03240017441655404</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2388096818.83902</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1590580999.419101</v>
+        <v>1192187910.924983</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1422883397419249</v>
+        <v>0.1380269012279819</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04307698380341086</v>
+        <v>0.0562825950220793</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>795290528.5021745</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3291987100.646829</v>
+        <v>3045424961.786265</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1509562655770647</v>
+        <v>0.1517992020399587</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02099016965545377</v>
+        <v>0.02620177319344252</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1645993579.223542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1648709118.65555</v>
+        <v>1201213761.742397</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1449456975766123</v>
+        <v>0.1244954865027597</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02943750572168417</v>
+        <v>0.03821142680180815</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>824354576.8765739</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4565827272.06472</v>
+        <v>4443526934.332167</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09451978895395748</v>
+        <v>0.098374423050689</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04358095771118677</v>
+        <v>0.04420380910514538</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2282913584.66846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3385144058.670107</v>
+        <v>2294756958.881284</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1351604084719871</v>
+        <v>0.2062864601430835</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02291667034519302</v>
+        <v>0.02523797901856348</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>64</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1692572140.066709</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3094184715.272214</v>
+        <v>3248007752.335043</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1398313849504604</v>
+        <v>0.1440979114281013</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02797471330602151</v>
+        <v>0.02608809724573854</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1547092329.20307</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1528141524.190653</v>
+        <v>1709642146.612306</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1842420641457981</v>
+        <v>0.1655612794804549</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04697989678526993</v>
+        <v>0.03096103275633608</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>764070749.3228635</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5388557590.960816</v>
+        <v>4122573202.861821</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07075205685922091</v>
+        <v>0.09320702760600805</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03881386538766265</v>
+        <v>0.02937169112946788</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>60</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2694278795.888142</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3793245244.216</v>
+        <v>5458792900.95835</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1806513333248976</v>
+        <v>0.1242522217460223</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02530527397346595</v>
+        <v>0.02384305005201178</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>65</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1896622643.406996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4776749073.794262</v>
+        <v>4188389845.479851</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1280111590193367</v>
+        <v>0.1135341536059823</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0218172113167122</v>
+        <v>0.02099799267555828</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>75</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2388374509.119742</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3983507029.760763</v>
+        <v>5223664007.466809</v>
       </c>
       <c r="F66" t="n">
-        <v>0.128960010529734</v>
+        <v>0.1275097853447557</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0457313109958172</v>
+        <v>0.04975190142559876</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>60</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1991753487.542188</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2119561893.748158</v>
+        <v>2123169481.572555</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06913811695379872</v>
+        <v>0.08365511091287026</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03243311547127092</v>
+        <v>0.04593545470197507</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1059781039.660807</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4793176222.134509</v>
+        <v>4246840608.686511</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1605942398878671</v>
+        <v>0.101473581824823</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03968110202871123</v>
+        <v>0.04347495060213333</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>67</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2396588154.904699</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1945739687.10491</v>
+        <v>1689848944.754736</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1540653359880957</v>
+        <v>0.1314762098685438</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05904957460133192</v>
+        <v>0.0447958836237625</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>972869841.5051444</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2369414894.667395</v>
+        <v>3395253805.812104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07878406328700387</v>
+        <v>0.06761047346968886</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03374307048248189</v>
+        <v>0.04510840594325265</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>59</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1184707383.22762</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4431053493.122707</v>
+        <v>4438111448.875503</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1392414814254999</v>
+        <v>0.1165588157432052</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03094846962334803</v>
+        <v>0.0333232180983696</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>76</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2215526809.759341</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1377512263.490222</v>
+        <v>1680873587.04824</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09336639585142055</v>
+        <v>0.1058434279576979</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05242229704024437</v>
+        <v>0.0379299443492158</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>688756178.4810033</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2393535076.963631</v>
+        <v>2419785184.895338</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07332916771754983</v>
+        <v>0.1000432482756371</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03892014560031953</v>
+        <v>0.05156780196418333</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>80</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1196767589.980452</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3049690078.533048</v>
+        <v>3813409939.310192</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1337035097356918</v>
+        <v>0.1328461236040758</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02452394158646757</v>
+        <v>0.03112347741400811</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>71</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1524845100.363321</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2274121859.679348</v>
+        <v>1979045391.392455</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1477640900331317</v>
+        <v>0.1493845085251059</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02891587097637411</v>
+        <v>0.03499295073110944</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1137060868.307134</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4023507937.056823</v>
+        <v>5227876277.877668</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1095466005805683</v>
+        <v>0.07863347876605782</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02679881805192943</v>
+        <v>0.02564517515158461</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2011753954.181753</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1619830029.812867</v>
+        <v>1692277212.155393</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1205033885432647</v>
+        <v>0.1638407573627804</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02616396714252796</v>
+        <v>0.0255035848906541</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>809915020.2683921</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4792575727.103718</v>
+        <v>4417510323.827165</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1059553574170826</v>
+        <v>0.1168149833969064</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05719377712712879</v>
+        <v>0.03487026990726801</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>72</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2396287772.561983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1540188214.793614</v>
+        <v>1372129725.156953</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1549653343895021</v>
+        <v>0.1565557074608177</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02876637301637135</v>
+        <v>0.0304480554003873</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>770094148.5860872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4272422071.315193</v>
+        <v>5240302288.274798</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07652495408817565</v>
+        <v>0.07886668848465767</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03171899324171023</v>
+        <v>0.02748280733220156</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>43</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2136211048.652519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5183010636.414471</v>
+        <v>4719746672.662036</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1139600753681768</v>
+        <v>0.1244386138393841</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02938597635051347</v>
+        <v>0.02893214252298956</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2591505325.332692</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4033119235.970707</v>
+        <v>4868284443.754451</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1587370547585826</v>
+        <v>0.1565939315817213</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01780060433750478</v>
+        <v>0.0249362233199</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>77</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2016559655.893706</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2206186314.230539</v>
+        <v>2094951694.547847</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1141606384223825</v>
+        <v>0.1094869271440291</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03982383545175079</v>
+        <v>0.03110388770063648</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1103093168.092853</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2092703078.281198</v>
+        <v>2192917172.447211</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07893016911844707</v>
+        <v>0.07523106074043431</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03174116634687341</v>
+        <v>0.03843436551385934</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1046351530.531147</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3663417980.919936</v>
+        <v>3657623523.086174</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1517750751159929</v>
+        <v>0.1844230521307608</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03462968791582537</v>
+        <v>0.03796480627183738</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>78</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1831709123.836266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2302244702.044652</v>
+        <v>2543966779.393766</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1278794677822242</v>
+        <v>0.1717072493698185</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02244712265642794</v>
+        <v>0.01738624471027998</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1151122420.668149</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1424323876.703129</v>
+        <v>1436838809.443181</v>
       </c>
       <c r="F87" t="n">
-        <v>0.173900748707585</v>
+        <v>0.1795377584350454</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04373745655656709</v>
+        <v>0.02977104217095761</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>712162051.4032125</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2781453398.379393</v>
+        <v>2941526129.563372</v>
       </c>
       <c r="F88" t="n">
-        <v>0.171645141229647</v>
+        <v>0.1425042903399751</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03998358937367208</v>
+        <v>0.02998569422176077</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>81</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1390726708.018131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2312470398.548997</v>
+        <v>2933582400.12395</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1245220529976052</v>
+        <v>0.121669439888682</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02826292551946957</v>
+        <v>0.04162785826547709</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>71</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1156235287.755637</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2089590687.904932</v>
+        <v>1830236653.08655</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1242889625682573</v>
+        <v>0.08335326741323874</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05481075633566032</v>
+        <v>0.0390963668616735</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1044795430.554675</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1621990639.904527</v>
+        <v>1991693306.364439</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1330774158058845</v>
+        <v>0.1607142830835085</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04742993717010568</v>
+        <v>0.04967672236521989</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>810995342.5904661</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3002333201.235169</v>
+        <v>1831682288.729651</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08978368581646323</v>
+        <v>0.08968405947181787</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03742222494383599</v>
+        <v>0.03446899814431686</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>52</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1501166622.537527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3480286513.212716</v>
+        <v>4916239347.422557</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1187232486159672</v>
+        <v>0.1239079565540338</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04276172412882669</v>
+        <v>0.05207526935497959</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1740143290.817996</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1520599752.365011</v>
+        <v>2250963200.837344</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1682401635076659</v>
+        <v>0.1612272249629795</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02952247583894382</v>
+        <v>0.03019230741118532</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>760299812.0868903</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2362911636.958364</v>
+        <v>1976734957.019484</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0976225318518401</v>
+        <v>0.1135347967095115</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04773755048640511</v>
+        <v>0.03292493248939822</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>50</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1181455864.511094</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2328395347.184305</v>
+        <v>1647199529.819283</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09227776847012518</v>
+        <v>0.1377481952699322</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03687045451350075</v>
+        <v>0.04342729930426079</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1164197625.486922</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3856098036.9073</v>
+        <v>4431491576.435992</v>
       </c>
       <c r="F97" t="n">
-        <v>0.161605062495392</v>
+        <v>0.1411470650166266</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02891586663962405</v>
+        <v>0.02120948869483286</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1928049063.243832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3823300899.47891</v>
+        <v>2547059128.396328</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013153204333778</v>
+        <v>0.1072095574510667</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02413502423343018</v>
+        <v>0.02344751101659101</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>55</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1911650490.258525</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2966900011.379361</v>
+        <v>3049716888.892637</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09243465180209968</v>
+        <v>0.1100677268793123</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02181618884301014</v>
+        <v>0.03409729610580507</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>64</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1483449989.230671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3925454471.052032</v>
+        <v>4700410397.913116</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1790544392473834</v>
+        <v>0.151991327068781</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02464959257773336</v>
+        <v>0.02067793291814071</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1962727300.237157</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3080179084.883126</v>
+        <v>2735258471.907514</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2039735847001923</v>
+        <v>0.2003014200378125</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04247822531251326</v>
+        <v>0.03849089549063812</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>84</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1540089642.081104</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_208.xlsx
+++ b/output/fit_clients/fit_round_208.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2153331497.574616</v>
+        <v>1591566851.002847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07027894894160173</v>
+        <v>0.1144426897806379</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03626426662619698</v>
+        <v>0.03792791113216638</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1934993216.901978</v>
+        <v>1918046676.759739</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1666555631283153</v>
+        <v>0.1592225733641497</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03787725626526459</v>
+        <v>0.04773596638705102</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4158863664.25358</v>
+        <v>4683546516.270746</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1577056899961655</v>
+        <v>0.1007718216049125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02864869977389867</v>
+        <v>0.02829445826145334</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4010050414.140854</v>
+        <v>2738154832.663294</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1058199656384979</v>
+        <v>0.07743638842181741</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04542920167448508</v>
+        <v>0.04359876373033626</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2051123695.152966</v>
+        <v>2465737019.868152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1423709863317635</v>
+        <v>0.1332322235232452</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04750774721246002</v>
+        <v>0.04019826251375805</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2071248554.472199</v>
+        <v>2508946416.243941</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07343777913008655</v>
+        <v>0.06374990699951648</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04956616685822497</v>
+        <v>0.04411008410242213</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2911290133.887067</v>
+        <v>3264578994.893692</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1665496461682706</v>
+        <v>0.1489961828272909</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02699138049678066</v>
+        <v>0.02378471466863688</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1771623666.932132</v>
+        <v>1905210027.475408</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1341047013875119</v>
+        <v>0.1404678918930748</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02381335393178139</v>
+        <v>0.0324674929538675</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3840600268.893589</v>
+        <v>3615982692.642889</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1461616314503479</v>
+        <v>0.1770716950835212</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03979464071628266</v>
+        <v>0.04690780395004047</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2889781923.494277</v>
+        <v>2818016664.790561</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1246678464277307</v>
+        <v>0.1632137474351241</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03475952426478541</v>
+        <v>0.04133667083806598</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3197114635.415966</v>
+        <v>3241441060.743426</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1722288353309455</v>
+        <v>0.1267819228324145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05095105733293023</v>
+        <v>0.0418210875249331</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5290204054.568511</v>
+        <v>4956202526.758762</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07255628388759072</v>
+        <v>0.09603006185316788</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01992035628716269</v>
+        <v>0.02966139224711376</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2388022240.816443</v>
+        <v>3619111239.670192</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1666634124500997</v>
+        <v>0.1362090226032867</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03005346109871192</v>
+        <v>0.04372327600852804</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1590180443.118646</v>
+        <v>1776524135.939592</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06670589760559674</v>
+        <v>0.06840731078856475</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04939108165651498</v>
+        <v>0.04016821511204678</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1773036076.653931</v>
+        <v>2220401439.195804</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08581104028812539</v>
+        <v>0.08819971982886228</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05184977264129043</v>
+        <v>0.03194501972113314</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4312033681.089495</v>
+        <v>4337436943.28752</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1716507425728473</v>
+        <v>0.1312618901826765</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04911451126052856</v>
+        <v>0.03695812680268903</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3460703429.377787</v>
+        <v>2490414703.082296</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1184452352520571</v>
+        <v>0.1517652283473834</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02279550698079859</v>
+        <v>0.02391073152960866</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1023264005.185529</v>
+        <v>1283812807.8607</v>
       </c>
       <c r="F19" t="n">
-        <v>0.155421796715113</v>
+        <v>0.1467525841036756</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02053348526255896</v>
+        <v>0.01935210723808514</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2627118318.847312</v>
+        <v>2305557315.567424</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1615613258910454</v>
+        <v>0.1568265491172108</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02913606924206135</v>
+        <v>0.02173594359320747</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2681411332.450994</v>
+        <v>2268882635.291561</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1003868155800911</v>
+        <v>0.08280808368462439</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03538357596152222</v>
+        <v>0.03058519499690962</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3960246616.776624</v>
+        <v>4046872443.126376</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1304001072459949</v>
+        <v>0.1014929403042701</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04406543544323434</v>
+        <v>0.05545539879635714</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1462070658.694409</v>
+        <v>1402210663.204202</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1526162539113724</v>
+        <v>0.133494734991539</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04692771906724862</v>
+        <v>0.03807031087178486</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3263169991.193145</v>
+        <v>3194001193.727275</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09362488071141596</v>
+        <v>0.148026935446974</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02607264358909885</v>
+        <v>0.03675926870045595</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1258827724.310022</v>
+        <v>1149735945.096416</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07510976101110178</v>
+        <v>0.1192146397713946</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02435601426534807</v>
+        <v>0.02066845779032213</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1131574889.019463</v>
+        <v>1207170315.745658</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1229781522838096</v>
+        <v>0.08721713101424268</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0270382357495532</v>
+        <v>0.025212665339229</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3564128454.331838</v>
+        <v>4182874446.877388</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1436272626211931</v>
+        <v>0.09624284640245115</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01800499656065954</v>
+        <v>0.01925002197964781</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3819586597.00776</v>
+        <v>2609552713.719695</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1261248286519981</v>
+        <v>0.1380669317420974</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05032551192606096</v>
+        <v>0.03667133468355495</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4584178140.64662</v>
+        <v>4786153331.731587</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1388417134314554</v>
+        <v>0.1190882724488307</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0301711918621889</v>
+        <v>0.04190670845361565</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1794199176.140014</v>
+        <v>2139600466.619112</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08502731903181816</v>
+        <v>0.1273388537684992</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0299522754726902</v>
+        <v>0.03860686865846608</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>987223521.0600851</v>
+        <v>1227724011.627932</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09062072580303052</v>
+        <v>0.08901481515897908</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04893898221494726</v>
+        <v>0.0328684596527631</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1369961338.869745</v>
+        <v>1579855582.273587</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09819753044938662</v>
+        <v>0.08921198898117479</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02995017546255601</v>
+        <v>0.03570078959515675</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2630138567.050598</v>
+        <v>2736290004.685117</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1755203818301135</v>
+        <v>0.1537112754888393</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04742553766527409</v>
+        <v>0.06089248613926027</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1453023638.120913</v>
+        <v>1051949859.186251</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08151329188124483</v>
+        <v>0.1006805779723377</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02253304711762385</v>
+        <v>0.01816647351762266</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1124365855.435863</v>
+        <v>1243960443.149488</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09034476397099835</v>
+        <v>0.1068218573888144</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03310798701367904</v>
+        <v>0.03715300536650278</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2541950885.967689</v>
+        <v>2597179859.196406</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1559856229503278</v>
+        <v>0.1254531659568352</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02131849930527115</v>
+        <v>0.02238924916286623</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1896253162.82027</v>
+        <v>2293275959.343671</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08719017558148513</v>
+        <v>0.09300505192774537</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04090884902350588</v>
+        <v>0.02585782535275585</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1926807701.314646</v>
+        <v>1935990157.14214</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08002180217672965</v>
+        <v>0.1053724341132776</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03512575522091103</v>
+        <v>0.03838201947276775</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1845898106.369179</v>
+        <v>2122493934.842014</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1542649632937858</v>
+        <v>0.1793918455138407</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03164260105554622</v>
+        <v>0.02905710601164706</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1262740192.118438</v>
+        <v>1700333584.620836</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1104649319020101</v>
+        <v>0.1531418499615212</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0469321964325926</v>
+        <v>0.04210728834335425</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2564519305.396208</v>
+        <v>2695340805.054599</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1575314291053212</v>
+        <v>0.1400144625742243</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03313240461566136</v>
+        <v>0.03267268096770509</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3060906888.84356</v>
+        <v>3582946312.713202</v>
       </c>
       <c r="F42" t="n">
-        <v>0.111604125501208</v>
+        <v>0.1010129786537345</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02959376793275153</v>
+        <v>0.03545966081115643</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2218674557.862196</v>
+        <v>2841767045.962166</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1671696317356947</v>
+        <v>0.1912401882230786</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02471727438796454</v>
+        <v>0.01595409678644962</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1427927782.956721</v>
+        <v>2017686668.644146</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09329064676730921</v>
+        <v>0.08048333532005281</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0249313680491781</v>
+        <v>0.03601795666599802</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2099238568.598278</v>
+        <v>1593303455.014045</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1691148767095648</v>
+        <v>0.1679841529279719</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03642349734949173</v>
+        <v>0.05126535183442051</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5097614089.65703</v>
+        <v>5471469815.410342</v>
       </c>
       <c r="F46" t="n">
-        <v>0.163249916894067</v>
+        <v>0.146512902577651</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03795710271436011</v>
+        <v>0.04575070387172788</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3159549974.534134</v>
+        <v>5094862294.79637</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1424595883257629</v>
+        <v>0.1536297524751478</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04531977259026559</v>
+        <v>0.04957425968506719</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3853198010.415225</v>
+        <v>4276526698.741325</v>
       </c>
       <c r="F48" t="n">
-        <v>0.10277985008697</v>
+        <v>0.0793738522676356</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0272414033817424</v>
+        <v>0.02570995316458166</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1381606126.459222</v>
+        <v>1807574040.483329</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1817647526607076</v>
+        <v>0.1768216208459348</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03928149687013848</v>
+        <v>0.03508597625185184</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3545554696.458378</v>
+        <v>3104223966.267009</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1399008795351883</v>
+        <v>0.1311280374237852</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04908368554992468</v>
+        <v>0.04541301108698768</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1308380738.271509</v>
+        <v>963301303.2257841</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1738721541523185</v>
+        <v>0.1190060241803114</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04265686786439778</v>
+        <v>0.05238532795793368</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5191054298.475286</v>
+        <v>4982817597.107573</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1099417436396869</v>
+        <v>0.1356649018082982</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05137549061402167</v>
+        <v>0.05857263784848169</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2836318003.282518</v>
+        <v>2831058377.2925</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2022012330353757</v>
+        <v>0.1693896318421372</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02670608231709952</v>
+        <v>0.03433403961492013</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4711922235.844805</v>
+        <v>3397704777.68393</v>
       </c>
       <c r="F54" t="n">
-        <v>0.145847575401543</v>
+        <v>0.1476052922880051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05138030195019045</v>
+        <v>0.04843578893933276</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4840803027.151027</v>
+        <v>4671294179.845681</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2087451300226076</v>
+        <v>0.1622487787222564</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03240017441655404</v>
+        <v>0.0276359620907559</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1192187910.924983</v>
+        <v>1643915754.506619</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1380269012279819</v>
+        <v>0.1079725749422965</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0562825950220793</v>
+        <v>0.03914949297309978</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3045424961.786265</v>
+        <v>2980964400.852124</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1517992020399587</v>
+        <v>0.1362949978476914</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02620177319344252</v>
+        <v>0.02078380606155018</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1201213761.742397</v>
+        <v>1775223221.685897</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1244954865027597</v>
+        <v>0.1829479780412252</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03821142680180815</v>
+        <v>0.02847286735996588</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4443526934.332167</v>
+        <v>3824872926.302941</v>
       </c>
       <c r="F59" t="n">
-        <v>0.098374423050689</v>
+        <v>0.09129551248948395</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04420380910514538</v>
+        <v>0.03419447454388579</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2294756958.881284</v>
+        <v>2570857580.576928</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2062864601430835</v>
+        <v>0.197592052554303</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02523797901856348</v>
+        <v>0.02273517562781933</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3248007752.335043</v>
+        <v>2242416069.382216</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1440979114281013</v>
+        <v>0.1461630975748978</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02608809724573854</v>
+        <v>0.02148740687957009</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1709642146.612306</v>
+        <v>1671849519.83389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1655612794804549</v>
+        <v>0.1308784737271512</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03096103275633608</v>
+        <v>0.0324654802178189</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4122573202.861821</v>
+        <v>5210468000.672648</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09320702760600805</v>
+        <v>0.07070374773180363</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02937169112946788</v>
+        <v>0.03299184930094031</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5458792900.95835</v>
+        <v>4938284869.488766</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1242522217460223</v>
+        <v>0.1808436278476371</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02384305005201178</v>
+        <v>0.02509722524677081</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4188389845.479851</v>
+        <v>5658571529.911246</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1135341536059823</v>
+        <v>0.1657168658104766</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02099799267555828</v>
+        <v>0.02541065215162314</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5223664007.466809</v>
+        <v>5553617716.625477</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1275097853447557</v>
+        <v>0.09995353536701987</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04975190142559876</v>
+        <v>0.04461855997994629</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2123169481.572555</v>
+        <v>3338472914.608147</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08365511091287026</v>
+        <v>0.06953203078408082</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04593545470197507</v>
+        <v>0.03968011672270649</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4246840608.686511</v>
+        <v>5336550791.98319</v>
       </c>
       <c r="F68" t="n">
-        <v>0.101473581824823</v>
+        <v>0.1518761610097382</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04347495060213333</v>
+        <v>0.04651132586034304</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1689848944.754736</v>
+        <v>1926113543.587632</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1314762098685438</v>
+        <v>0.1662831417578743</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0447958836237625</v>
+        <v>0.05589410952292551</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3395253805.812104</v>
+        <v>3416215467.802491</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06761047346968886</v>
+        <v>0.08520813593421678</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04510840594325265</v>
+        <v>0.04623270775893126</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4438111448.875503</v>
+        <v>5124927031.968197</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1165588157432052</v>
+        <v>0.1771243633597214</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0333232180983696</v>
+        <v>0.02410608523400336</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1680873587.04824</v>
+        <v>1558850836.729843</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1058434279576979</v>
+        <v>0.1076055602676154</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0379299443492158</v>
+        <v>0.0478477445153418</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2419785184.895338</v>
+        <v>3286393893.44823</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1000432482756371</v>
+        <v>0.0688922071114845</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05156780196418333</v>
+        <v>0.03286640064084784</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3813409939.310192</v>
+        <v>3498397606.827137</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1328461236040758</v>
+        <v>0.1304274302444147</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03112347741400811</v>
+        <v>0.02619381044674663</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1979045391.392455</v>
+        <v>2298264598.215207</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1493845085251059</v>
+        <v>0.1576865897746341</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03499295073110944</v>
+        <v>0.02584203793463621</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5227876277.877668</v>
+        <v>3936741376.188836</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07863347876605782</v>
+        <v>0.1155939729290718</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02564517515158461</v>
+        <v>0.02144868199852007</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1692277212.155393</v>
+        <v>1670308427.650587</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1638407573627804</v>
+        <v>0.1389892359701145</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0255035848906541</v>
+        <v>0.02866544080343697</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4417510323.827165</v>
+        <v>4068655851.421349</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1168149833969064</v>
+        <v>0.1006398422568632</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03487026990726801</v>
+        <v>0.04366432446125316</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1372129725.156953</v>
+        <v>1805927295.978119</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1565557074608177</v>
+        <v>0.1212644997168397</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0304480554003873</v>
+        <v>0.03047682831433732</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5240302288.274798</v>
+        <v>3883446172.200834</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07886668848465767</v>
+        <v>0.1008687362975747</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02748280733220156</v>
+        <v>0.03695006176186441</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4719746672.662036</v>
+        <v>4941672199.93535</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1244386138393841</v>
+        <v>0.1121841444433316</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02893214252298956</v>
+        <v>0.02587245220182527</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4868284443.754451</v>
+        <v>5134537606.280272</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1565939315817213</v>
+        <v>0.2056260485901243</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0249362233199</v>
+        <v>0.02228361578329398</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2094951694.547847</v>
+        <v>2388228089.986088</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1094869271440291</v>
+        <v>0.1408714430541064</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03110388770063648</v>
+        <v>0.03250780473569569</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2192917172.447211</v>
+        <v>2018051818.403323</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07523106074043431</v>
+        <v>0.1029135782592593</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03843436551385934</v>
+        <v>0.03727177770173654</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3657623523.086174</v>
+        <v>2285183363.889521</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1844230521307608</v>
+        <v>0.1537672069160292</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03796480627183738</v>
+        <v>0.05188459450654251</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2543966779.393766</v>
+        <v>2286683674.753869</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1717072493698185</v>
+        <v>0.1473647847120862</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01738624471027998</v>
+        <v>0.02302868186949529</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1436838809.443181</v>
+        <v>1293807315.989916</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1795377584350454</v>
+        <v>0.1474040222596649</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02977104217095761</v>
+        <v>0.03100516972575411</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2941526129.563372</v>
+        <v>3209262069.425189</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1425042903399751</v>
+        <v>0.1267946984027905</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02998569422176077</v>
+        <v>0.03802932562605712</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2933582400.12395</v>
+        <v>2365496992.998662</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121669439888682</v>
+        <v>0.1499020054888402</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04162785826547709</v>
+        <v>0.03471741039957194</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1830236653.08655</v>
+        <v>2074209060.922651</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08335326741323874</v>
+        <v>0.0852298201960137</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0390963668616735</v>
+        <v>0.05240010212059419</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1991693306.364439</v>
+        <v>2056071844.430227</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1607142830835085</v>
+        <v>0.1271527392215347</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04967672236521989</v>
+        <v>0.05587651135292802</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1831682288.729651</v>
+        <v>2018425498.676253</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08968405947181787</v>
+        <v>0.09501621628172682</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03446899814431686</v>
+        <v>0.03830301024993545</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4916239347.422557</v>
+        <v>4969815687.040612</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1239079565540338</v>
+        <v>0.1202219239833592</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05207526935497959</v>
+        <v>0.03790121204247286</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2250963200.837344</v>
+        <v>2164384873.567502</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1612272249629795</v>
+        <v>0.1116186207705504</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03019230741118532</v>
+        <v>0.04064358267718213</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1976734957.019484</v>
+        <v>2862606226.407056</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1135347967095115</v>
+        <v>0.1151431618100089</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03292493248939822</v>
+        <v>0.04329567868484632</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1647199529.819283</v>
+        <v>2316421290.87165</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1377481952699322</v>
+        <v>0.1299317692566674</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04342729930426079</v>
+        <v>0.04202115091143399</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4431491576.435992</v>
+        <v>5077475495.648548</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1411470650166266</v>
+        <v>0.1249548597299787</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02120948869483286</v>
+        <v>0.01878399547640528</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2547059128.396328</v>
+        <v>2841910135.917428</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1072095574510667</v>
+        <v>0.1198489859377888</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02344751101659101</v>
+        <v>0.02533285051017094</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3049716888.892637</v>
+        <v>3113476735.487112</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1100677268793123</v>
+        <v>0.1022128782434564</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03409729610580507</v>
+        <v>0.02982748021012194</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4700410397.913116</v>
+        <v>4247474517.775434</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151991327068781</v>
+        <v>0.1391554352350783</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02067793291814071</v>
+        <v>0.02214576657577457</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2735258471.907514</v>
+        <v>2418823189.033096</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2003014200378125</v>
+        <v>0.1856829499770232</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03849089549063812</v>
+        <v>0.04002081221341377</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_208.xlsx
+++ b/output/fit_clients/fit_round_208.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1591566851.002847</v>
+        <v>1822883708.134141</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1144426897806379</v>
+        <v>0.1107357599138197</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03792791113216638</v>
+        <v>0.04104033462073554</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1918046676.759739</v>
+        <v>2289912820.600163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1592225733641497</v>
+        <v>0.1825113252036354</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04773596638705102</v>
+        <v>0.03284543564318458</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4683546516.270746</v>
+        <v>4535839271.780337</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1007718216049125</v>
+        <v>0.158018269183146</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02829445826145334</v>
+        <v>0.03666668485001481</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>114</v>
+      </c>
+      <c r="J4" t="n">
+        <v>207</v>
+      </c>
+      <c r="K4" t="n">
+        <v>116.0340847683458</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2738154832.663294</v>
+        <v>2985308628.557632</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07743638842181741</v>
+        <v>0.08947173611759605</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04359876373033626</v>
+        <v>0.04414944762870615</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>206</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2465737019.868152</v>
+        <v>2748321282.094482</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1332322235232452</v>
+        <v>0.1147461840863289</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04019826251375805</v>
+        <v>0.03964400716430382</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2508946416.243941</v>
+        <v>2285603055.649886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06374990699951648</v>
+        <v>0.06188509132284876</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04411008410242213</v>
+        <v>0.02994307141316955</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3264578994.893692</v>
+        <v>3586544876.120583</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1489961828272909</v>
+        <v>0.1446685428618777</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02378471466863688</v>
+        <v>0.02193838267251659</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>58</v>
+      </c>
+      <c r="J8" t="n">
+        <v>208</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1905210027.475408</v>
+        <v>1881177822.239938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1404678918930748</v>
+        <v>0.1743240930668501</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0324674929538675</v>
+        <v>0.02969937292765255</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3615982692.642889</v>
+        <v>3582335263.809847</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1770716950835212</v>
+        <v>0.1689865537536683</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04690780395004047</v>
+        <v>0.04620210728795377</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>190</v>
+      </c>
+      <c r="J10" t="n">
+        <v>207</v>
+      </c>
+      <c r="K10" t="n">
+        <v>89.12413914784578</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2818016664.790561</v>
+        <v>3837622500.711581</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1632137474351241</v>
+        <v>0.1722631709656847</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04133667083806598</v>
+        <v>0.04415101382495439</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>207</v>
+      </c>
+      <c r="K11" t="n">
+        <v>101.7441687308728</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3241441060.743426</v>
+        <v>3325796912.94613</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1267819228324145</v>
+        <v>0.1490283192753858</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0418210875249331</v>
+        <v>0.04511599549546062</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4956202526.758762</v>
+        <v>4358815960.773248</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09603006185316788</v>
+        <v>0.0871635077444181</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02966139224711376</v>
+        <v>0.0291797611905573</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>103</v>
+      </c>
+      <c r="J13" t="n">
+        <v>208</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3619111239.670192</v>
+        <v>3009864999.324717</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1362090226032867</v>
+        <v>0.1597007903259544</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04372327600852804</v>
+        <v>0.03983445329819898</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>40</v>
+      </c>
+      <c r="J14" t="n">
+        <v>205</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1776524135.939592</v>
+        <v>1591423106.568869</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06840731078856475</v>
+        <v>0.06909475743545236</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04016821511204678</v>
+        <v>0.04386334531405861</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2220401439.195804</v>
+        <v>2425386105.689837</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08819971982886228</v>
+        <v>0.07733206978176939</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03194501972113314</v>
+        <v>0.03213354402777575</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4337436943.28752</v>
+        <v>4247823350.763965</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1312618901826765</v>
+        <v>0.1117009629961797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03695812680268903</v>
+        <v>0.04059713663094377</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>207</v>
+      </c>
+      <c r="K17" t="n">
+        <v>108.0140282846759</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2490414703.082296</v>
+        <v>3353502760.38285</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1517652283473834</v>
+        <v>0.1608761708977544</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02391073152960866</v>
+        <v>0.02133094709941821</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>53</v>
+      </c>
+      <c r="J18" t="n">
+        <v>207</v>
+      </c>
+      <c r="K18" t="n">
+        <v>73.12868294216703</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1283812807.8607</v>
+        <v>1072355831.125867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1467525841036756</v>
+        <v>0.1331438678719879</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01935210723808514</v>
+        <v>0.02498680252726317</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2305557315.567424</v>
+        <v>1939545299.321813</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1568265491172108</v>
+        <v>0.1494937372836372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02173594359320747</v>
+        <v>0.01936383044872491</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2268882635.291561</v>
+        <v>1850067243.988449</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08280808368462439</v>
+        <v>0.1025482144613787</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03058519499690962</v>
+        <v>0.04600994336809118</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4046872443.126376</v>
+        <v>4042675940.903061</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1014929403042701</v>
+        <v>0.1108226361445303</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05545539879635714</v>
+        <v>0.04278290544022696</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>53</v>
+      </c>
+      <c r="J22" t="n">
+        <v>208</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1402210663.204202</v>
+        <v>1218659321.274556</v>
       </c>
       <c r="F23" t="n">
-        <v>0.133494734991539</v>
+        <v>0.1462515664220198</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03807031087178486</v>
+        <v>0.04794727388886674</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3194001193.727275</v>
+        <v>2573312462.469201</v>
       </c>
       <c r="F24" t="n">
-        <v>0.148026935446974</v>
+        <v>0.1108854579261957</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03675926870045595</v>
+        <v>0.03733081974599445</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>203</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1149735945.096416</v>
+        <v>1097866447.694465</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1192146397713946</v>
+        <v>0.09840812429134591</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02066845779032213</v>
+        <v>0.03095333787326694</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1207170315.745658</v>
+        <v>1230535057.16538</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08721713101424268</v>
+        <v>0.1166345903224302</v>
       </c>
       <c r="G26" t="n">
-        <v>0.025212665339229</v>
+        <v>0.03824913274505005</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4182874446.877388</v>
+        <v>3164890853.202799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09624284640245115</v>
+        <v>0.1322066768919801</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01925002197964781</v>
+        <v>0.01911315629046947</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>82</v>
+      </c>
+      <c r="J27" t="n">
+        <v>206</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2609552713.719695</v>
+        <v>3337278400.502793</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1380669317420974</v>
+        <v>0.1268299184251944</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03667133468355495</v>
+        <v>0.04801870510994361</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4786153331.731587</v>
+        <v>5356332962.94464</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1190882724488307</v>
+        <v>0.1229817007615986</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04190670845361565</v>
+        <v>0.04180507044667604</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>197</v>
+      </c>
+      <c r="J29" t="n">
+        <v>208</v>
+      </c>
+      <c r="K29" t="n">
+        <v>132.4183503534896</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2139600466.619112</v>
+        <v>2133422754.323845</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1273388537684992</v>
+        <v>0.09093802388604072</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03860686865846608</v>
+        <v>0.03228764228160638</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1227724011.627932</v>
+        <v>1101678621.727783</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08901481515897908</v>
+        <v>0.06988116669495988</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0328684596527631</v>
+        <v>0.03508205336062076</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1579855582.273587</v>
+        <v>1386909540.577648</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08921198898117479</v>
+        <v>0.1058514014732717</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03570078959515675</v>
+        <v>0.03153913488610902</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2736290004.685117</v>
+        <v>2227525206.092734</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1537112754888393</v>
+        <v>0.1943783279887492</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06089248613926027</v>
+        <v>0.05524592915633269</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1051949859.186251</v>
+        <v>1129535869.913109</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1006805779723377</v>
+        <v>0.0804417916025144</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01816647351762266</v>
+        <v>0.02161958968101711</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1243960443.149488</v>
+        <v>1203262185.57624</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1068218573888144</v>
+        <v>0.1137401262117443</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03715300536650278</v>
+        <v>0.02877311431481383</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2597179859.196406</v>
+        <v>2162816919.373338</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1254531659568352</v>
+        <v>0.1640057813440856</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02238924916286623</v>
+        <v>0.01995875729200341</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2293275959.343671</v>
+        <v>2517969551.7444</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09300505192774537</v>
+        <v>0.09308743993286542</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02585782535275585</v>
+        <v>0.02664233594741893</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1935990157.14214</v>
+        <v>1348716043.713615</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1053724341132776</v>
+        <v>0.1026301039217291</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03838201947276775</v>
+        <v>0.03395147260194117</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2122493934.842014</v>
+        <v>1735066197.569777</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1793918455138407</v>
+        <v>0.1667097373611551</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02905710601164706</v>
+        <v>0.0219839682337927</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1700333584.620836</v>
+        <v>1658303577.825421</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1531418499615212</v>
+        <v>0.1281801315041003</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04210728834335425</v>
+        <v>0.047246211538436</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2695340805.054599</v>
+        <v>1802246784.180243</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1400144625742243</v>
+        <v>0.1517562770678142</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03267268096770509</v>
+        <v>0.04063191030931899</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3582946312.713202</v>
+        <v>3619496529.585899</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1010129786537345</v>
+        <v>0.1069261438941161</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03545966081115643</v>
+        <v>0.02974844294924431</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>82</v>
+      </c>
+      <c r="J42" t="n">
+        <v>207</v>
+      </c>
+      <c r="K42" t="n">
+        <v>89.1952381735741</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2841767045.962166</v>
+        <v>1853077806.406914</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1912401882230786</v>
+        <v>0.1923833898309339</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01595409678644962</v>
+        <v>0.02045491548880886</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2017686668.644146</v>
+        <v>1681957230.044442</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08048333532005281</v>
+        <v>0.1025189210925914</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03601795666599802</v>
+        <v>0.03318964649658451</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1593303455.014045</v>
+        <v>1714396049.227057</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1679841529279719</v>
+        <v>0.1237118896352366</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05126535183442051</v>
+        <v>0.04887533970377433</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5471469815.410342</v>
+        <v>3633410869.941756</v>
       </c>
       <c r="F46" t="n">
-        <v>0.146512902577651</v>
+        <v>0.1739162649151589</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04575070387172788</v>
+        <v>0.05292743088000579</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>119</v>
+      </c>
+      <c r="J46" t="n">
+        <v>207</v>
+      </c>
+      <c r="K46" t="n">
+        <v>86.51579224980178</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5094862294.79637</v>
+        <v>5021097773.316991</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1536297524751478</v>
+        <v>0.1421861703398613</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04957425968506719</v>
+        <v>0.05819032420705095</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>93</v>
+      </c>
+      <c r="J47" t="n">
+        <v>208</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4276526698.741325</v>
+        <v>4280925619.549992</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0793738522676356</v>
+        <v>0.07588197037724836</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02570995316458166</v>
+        <v>0.0391977081029048</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>102</v>
+      </c>
+      <c r="J48" t="n">
+        <v>208</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1807574040.483329</v>
+        <v>1591379525.260674</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1768216208459348</v>
+        <v>0.1850504748575826</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03508597625185184</v>
+        <v>0.0423216705259007</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3104223966.267009</v>
+        <v>3774006014.77529</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1311280374237852</v>
+        <v>0.1402316515265361</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04541301108698768</v>
+        <v>0.04388086757244187</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>207</v>
+      </c>
+      <c r="K50" t="n">
+        <v>94.78365421643208</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>963301303.2257841</v>
+        <v>1364706032.476388</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1190060241803114</v>
+        <v>0.1691942774552469</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05238532795793368</v>
+        <v>0.04504505060477686</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4982817597.107573</v>
+        <v>5282633817.699617</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1356649018082982</v>
+        <v>0.103983509837414</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05857263784848169</v>
+        <v>0.05286626726341832</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>141</v>
+      </c>
+      <c r="J52" t="n">
+        <v>208</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2831058377.2925</v>
+        <v>3217844788.97534</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1693896318421372</v>
+        <v>0.1726535637698609</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03433403961492013</v>
+        <v>0.03389847393290532</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>205</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3397704777.68393</v>
+        <v>3055026150.827466</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1476052922880051</v>
+        <v>0.1623242400690066</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04843578893933276</v>
+        <v>0.0527090392642442</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>108</v>
+      </c>
+      <c r="J54" t="n">
+        <v>207</v>
+      </c>
+      <c r="K54" t="n">
+        <v>62.43367266846971</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4671294179.845681</v>
+        <v>4872909150.983405</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1622487787222564</v>
+        <v>0.2216020306814322</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0276359620907559</v>
+        <v>0.02831808950067753</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>93</v>
+      </c>
+      <c r="J55" t="n">
+        <v>207</v>
+      </c>
+      <c r="K55" t="n">
+        <v>115.1179610602995</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1643915754.506619</v>
+        <v>1684179720.260796</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1079725749422965</v>
+        <v>0.1202519050766077</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03914949297309978</v>
+        <v>0.03679493423119178</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2980964400.852124</v>
+        <v>4020828634.746594</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1362949978476914</v>
+        <v>0.1260747225832292</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02078380606155018</v>
+        <v>0.01865065124351394</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>82</v>
+      </c>
+      <c r="J57" t="n">
+        <v>207</v>
+      </c>
+      <c r="K57" t="n">
+        <v>104.6334537442283</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775223221.685897</v>
+        <v>1504044082.260362</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1829479780412252</v>
+        <v>0.1314334983655261</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02847286735996588</v>
+        <v>0.024970142563524</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3824872926.302941</v>
+        <v>4635190613.089677</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09129551248948395</v>
+        <v>0.1013714447620221</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03419447454388579</v>
+        <v>0.03676123033634533</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>100</v>
+      </c>
+      <c r="J59" t="n">
+        <v>208</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2570857580.576928</v>
+        <v>3075856010.932792</v>
       </c>
       <c r="F60" t="n">
-        <v>0.197592052554303</v>
+        <v>0.1670772348421913</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02273517562781933</v>
+        <v>0.02077466480738421</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2242416069.382216</v>
+        <v>3071082338.540642</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1461630975748978</v>
+        <v>0.1565818313167717</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02148740687957009</v>
+        <v>0.0222815745081885</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1671849519.83389</v>
+        <v>1929983144.186249</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1308784737271512</v>
+        <v>0.154209243201923</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0324654802178189</v>
+        <v>0.0445854542692873</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5210468000.672648</v>
+        <v>4915281618.736431</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07070374773180363</v>
+        <v>0.09316719111778443</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03299184930094031</v>
+        <v>0.04524391273806556</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>101</v>
+      </c>
+      <c r="J63" t="n">
+        <v>208</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4938284869.488766</v>
+        <v>4124062380.096915</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1808436278476371</v>
+        <v>0.1259780905872235</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02509722524677081</v>
+        <v>0.03478720454585421</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>102</v>
+      </c>
+      <c r="J64" t="n">
+        <v>208</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5658571529.911246</v>
+        <v>5448548356.151011</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1657168658104766</v>
+        <v>0.1060591991087266</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02541065215162314</v>
+        <v>0.02322467810364687</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>166</v>
+      </c>
+      <c r="J65" t="n">
+        <v>208</v>
+      </c>
+      <c r="K65" t="n">
+        <v>120.353464207819</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5553617716.625477</v>
+        <v>4882060468.160766</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09995353536701987</v>
+        <v>0.1218635739049778</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04461855997994629</v>
+        <v>0.04424002284750629</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>102</v>
+      </c>
+      <c r="J66" t="n">
+        <v>208</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3338472914.608147</v>
+        <v>2406523368.309738</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06953203078408082</v>
+        <v>0.08239324594480145</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03968011672270649</v>
+        <v>0.05145251293795723</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5336550791.98319</v>
+        <v>5548782309.700791</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1518761610097382</v>
+        <v>0.102385922159559</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04651132586034304</v>
+        <v>0.0415250699982637</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>105</v>
+      </c>
+      <c r="J68" t="n">
+        <v>207</v>
+      </c>
+      <c r="K68" t="n">
+        <v>114.5549322714919</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1926113543.587632</v>
+        <v>2354178739.25557</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1662831417578743</v>
+        <v>0.1260325670907812</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05589410952292551</v>
+        <v>0.05667305757799043</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3416215467.802491</v>
+        <v>2848290209.330921</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08520813593421678</v>
+        <v>0.09630872314271834</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04623270775893126</v>
+        <v>0.0446579491772496</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>206</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5124927031.968197</v>
+        <v>5108508525.656248</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1771243633597214</v>
+        <v>0.145601791654448</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02410608523400336</v>
+        <v>0.03313500831846982</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>159</v>
+      </c>
+      <c r="J71" t="n">
+        <v>208</v>
+      </c>
+      <c r="K71" t="n">
+        <v>118.1900702361216</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1558850836.729843</v>
+        <v>1858551632.273863</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1076055602676154</v>
+        <v>0.08241398365646681</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0478477445153418</v>
+        <v>0.05203810222391614</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3286393893.44823</v>
+        <v>3507620924.28063</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0688922071114845</v>
+        <v>0.08396039617244246</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03286640064084784</v>
+        <v>0.0343001015818933</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3498397606.827137</v>
+        <v>3463784188.454754</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1304274302444147</v>
+        <v>0.1687746304377321</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02619381044674663</v>
+        <v>0.02302127494625293</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>61</v>
+      </c>
+      <c r="J74" t="n">
+        <v>208</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2298264598.215207</v>
+        <v>2363030238.431087</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1576865897746341</v>
+        <v>0.1529682667118537</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02584203793463621</v>
+        <v>0.02389371230824603</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3936741376.188836</v>
+        <v>4220707072.637313</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1155939729290718</v>
+        <v>0.1047043648045966</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02144868199852007</v>
+        <v>0.02879190127562493</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>95</v>
+      </c>
+      <c r="J76" t="n">
+        <v>208</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1670308427.650587</v>
+        <v>1901843616.341609</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1389892359701145</v>
+        <v>0.1417240264557016</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02866544080343697</v>
+        <v>0.02868857784804187</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4068655851.421349</v>
+        <v>4754484547.590016</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1006398422568632</v>
+        <v>0.1365241621447096</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04366432446125316</v>
+        <v>0.04469432897007786</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>104</v>
+      </c>
+      <c r="J78" t="n">
+        <v>208</v>
+      </c>
+      <c r="K78" t="n">
+        <v>119.3197916167224</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1805927295.978119</v>
+        <v>1862723731.852863</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1212644997168397</v>
+        <v>0.113350033819402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03047682831433732</v>
+        <v>0.04027567208186237</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3883446172.200834</v>
+        <v>4367735202.309535</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1008687362975747</v>
+        <v>0.1103047521619026</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03695006176186441</v>
+        <v>0.03166617348288806</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>101</v>
+      </c>
+      <c r="J80" t="n">
+        <v>207</v>
+      </c>
+      <c r="K80" t="n">
+        <v>85.87964036743389</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4941672199.93535</v>
+        <v>5120510025.8483</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1121841444433316</v>
+        <v>0.1202419776269397</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02587245220182527</v>
+        <v>0.02305356060388918</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>95</v>
+      </c>
+      <c r="J81" t="n">
+        <v>208</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5134537606.280272</v>
+        <v>4626875041.184744</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2056260485901243</v>
+        <v>0.1312521964072887</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02228361578329398</v>
+        <v>0.01952557155349935</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>154</v>
+      </c>
+      <c r="J82" t="n">
+        <v>208</v>
+      </c>
+      <c r="K82" t="n">
+        <v>122.8032497422073</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2388228089.986088</v>
+        <v>2366078141.786727</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1408714430541064</v>
+        <v>0.1407744559209583</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03250780473569569</v>
+        <v>0.04003281114418895</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2018051818.403323</v>
+        <v>2429159942.182178</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1029135782592593</v>
+        <v>0.09485287122226314</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03727177770173654</v>
+        <v>0.04869953131203009</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2285183363.889521</v>
+        <v>2437604247.671594</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1537672069160292</v>
+        <v>0.1541200597370633</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05188459450654251</v>
+        <v>0.04263680878144988</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n">
+        <v>205</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2286683674.753869</v>
+        <v>2803753125.369635</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1473647847120862</v>
+        <v>0.1167829282609922</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02302868186949529</v>
+        <v>0.01871102156906704</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1293807315.989916</v>
+        <v>1312019016.726064</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1474040222596649</v>
+        <v>0.1251502482300244</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03100516972575411</v>
+        <v>0.02858779049120558</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3209262069.425189</v>
+        <v>3337363429.867811</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1267946984027905</v>
+        <v>0.1453739558723605</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03802932562605712</v>
+        <v>0.02519632993097354</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>29</v>
+      </c>
+      <c r="J88" t="n">
+        <v>204</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2365496992.998662</v>
+        <v>2769194051.322182</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1499020054888402</v>
+        <v>0.1183712480191863</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03471741039957194</v>
+        <v>0.04180223018759488</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2074209060.922651</v>
+        <v>1626507248.180505</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0852298201960137</v>
+        <v>0.08893710304285643</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05240010212059419</v>
+        <v>0.0377130997047378</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2056071844.430227</v>
+        <v>2081506368.344772</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1271527392215347</v>
+        <v>0.1393784598509492</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05587651135292802</v>
+        <v>0.04844910312173686</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2018425498.676253</v>
+        <v>2860637574.017516</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09501621628172682</v>
+        <v>0.07368388145538431</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03830301024993545</v>
+        <v>0.04159891233569594</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4969815687.040612</v>
+        <v>4801492405.843469</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1202219239833592</v>
+        <v>0.1195849000796816</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03790121204247286</v>
+        <v>0.04575761249588255</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>94</v>
+      </c>
+      <c r="J93" t="n">
+        <v>207</v>
+      </c>
+      <c r="K93" t="n">
+        <v>112.6777089106524</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2164384873.567502</v>
+        <v>2316111533.261073</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1116186207705504</v>
+        <v>0.1373193548051044</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04064358267718213</v>
+        <v>0.03411702968640302</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2862606226.407056</v>
+        <v>2207972596.094277</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1151431618100089</v>
+        <v>0.08963003856767142</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04329567868484632</v>
+        <v>0.03966612937354972</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2316421290.87165</v>
+        <v>1474037788.175916</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1299317692566674</v>
+        <v>0.1020848876831706</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04202115091143399</v>
+        <v>0.02924187525412055</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3864,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5077475495.648548</v>
+        <v>3597208917.127889</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1249548597299787</v>
+        <v>0.1591317797447494</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01878399547640528</v>
+        <v>0.0211987050911433</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>100</v>
+      </c>
+      <c r="J97" t="n">
+        <v>207</v>
+      </c>
+      <c r="K97" t="n">
+        <v>83.53511862719077</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2841910135.917428</v>
+        <v>3000004719.131056</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1198489859377888</v>
+        <v>0.126001177441028</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02533285051017094</v>
+        <v>0.02172818437111927</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>52</v>
+      </c>
+      <c r="J98" t="n">
+        <v>206</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3113476735.487112</v>
+        <v>2437277829.929223</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1022128782434564</v>
+        <v>0.102418809219587</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02982748021012194</v>
+        <v>0.03483734497716709</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4247474517.775434</v>
+        <v>4524880013.520033</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1391554352350783</v>
+        <v>0.116524166224265</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02214576657577457</v>
+        <v>0.02430222205718134</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>85</v>
+      </c>
+      <c r="J100" t="n">
+        <v>208</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2418823189.033096</v>
+        <v>2590632522.405455</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1856829499770232</v>
+        <v>0.2185734096710141</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04002081221341377</v>
+        <v>0.05021542284861824</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
